--- a/Assets/Excel/Combo.xlsx
+++ b/Assets/Excel/Combo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080"/>
+    <workbookView windowWidth="18470" windowHeight="5530"/>
   </bookViews>
   <sheets>
     <sheet name="Combo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>//Remark</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>2003;2004</t>
   </si>
 </sst>
 </file>
@@ -965,15 +968,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="17.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1021,6 +1025,20 @@
       </c>
       <c r="D4">
         <v>9001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9002</v>
       </c>
     </row>
   </sheetData>
